--- a/Problem.xlsx
+++ b/Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Amcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B2BB76-753B-4EB9-9449-D15FA11CC0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3B1B13-129D-4814-86F1-A182EDF30461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Problem.xlsx
+++ b/Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Amcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3B1B13-129D-4814-86F1-A182EDF30461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A4008A-BBC8-40D2-8693-378B61550580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,12 +169,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,8 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,47 +509,47 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Problem.xlsx
+++ b/Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Amcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A4008A-BBC8-40D2-8693-378B61550580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A10410-C5DC-4069-9D4A-C9F48CE49097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,7 +554,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Problem.xlsx
+++ b/Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Amcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A10410-C5DC-4069-9D4A-C9F48CE49097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB36DCA-EE7F-4D71-8D17-524445D1101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,12 +559,12 @@
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Problem.xlsx
+++ b/Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Amcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB36DCA-EE7F-4D71-8D17-524445D1101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831C3D0E-B04A-4E93-B6C9-9D68248904F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,12 +569,12 @@
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Problem.xlsx
+++ b/Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Amcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831C3D0E-B04A-4E93-B6C9-9D68248904F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7E13D1-A0A2-4276-B14F-98069162DDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,12 +579,12 @@
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Problem.xlsx
+++ b/Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Amcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7E13D1-A0A2-4276-B14F-98069162DDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF6362E-6F68-4774-A1EA-A0DA2D5DAD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +589,7 @@
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Problem.xlsx
+++ b/Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Amcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF6362E-6F68-4774-A1EA-A0DA2D5DAD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD39CFAB-DE0E-445C-9647-0B8D24F836B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,17 +594,17 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Problem.xlsx
+++ b/Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Amcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD39CFAB-DE0E-445C-9647-0B8D24F836B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A671CDD-7BEF-4A99-9D48-FD3C82B67C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,12 +614,12 @@
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Problem.xlsx
+++ b/Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Amcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A671CDD-7BEF-4A99-9D48-FD3C82B67C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2BFB43-04CA-449A-90DB-80ADB4D1D550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,7 +634,7 @@
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Problem.xlsx
+++ b/Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Amcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2BFB43-04CA-449A-90DB-80ADB4D1D550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8C341-5FAD-46B7-8BB1-4EA085822319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,17 +659,17 @@
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -694,17 +694,17 @@
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Problem.xlsx
+++ b/Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Amcat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8C341-5FAD-46B7-8BB1-4EA085822319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31975566-A877-44BE-83E7-1A8CB041C481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,12 +179,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,10 +195,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,12 +542,12 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
